--- a/Relatorio_anuncios_patrocinados_mes_total_MG.xlsx
+++ b/Relatorio_anuncios_patrocinados_mes_total_MG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388CEBF0-E18B-41C1-9ED4-5E2D4A26D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{41F36173-AD89-4C32-95C2-B81D4D8B1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EC5470-4F6A-4777-96EF-8BB36029AE64}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 25-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +254,7 @@
         <rFont val="Proxima Nova"/>
       </rPr>
       <t xml:space="preserve"> 
-01 julho 2025 - 24 julho 2025</t>
+01 julho 2025 - 27 julho 2025</t>
     </r>
   </si>
   <si>
@@ -267,14 +267,14 @@
         <rFont val="Proxima Nova"/>
       </rPr>
       <t xml:space="preserve"> 
-(Os valores das métricas correspondem a: 01 julho 2025 - 24 julho 2025)</t>
+(Os valores das métricas correspondem a: 01 julho 2025 - 27 julho 2025)</t>
     </r>
   </si>
   <si>
     <t>01-jul-2025</t>
   </si>
   <si>
-    <t>24-jul-2025</t>
+    <t>27-jul-2025</t>
   </si>
   <si>
     <t>ads 280 aroeira orgânico</t>
@@ -841,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
@@ -971,31 +971,31 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>2899</v>
+        <v>2980</v>
       </c>
       <c r="H3" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" s="9">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="J3" s="9">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="K3" s="9">
-        <v>27.59</v>
+        <v>26.67</v>
       </c>
       <c r="L3" s="9">
         <v>500.39999389648438</v>
       </c>
       <c r="M3" s="9">
-        <v>118.61</v>
+        <v>119.14</v>
       </c>
       <c r="N3" s="9">
-        <v>23.7</v>
+        <v>23.81</v>
       </c>
       <c r="O3" s="9">
-        <v>421.89</v>
+        <v>420.01</v>
       </c>
       <c r="P3" s="9">
         <v>24</v>
@@ -1157,31 +1157,31 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>119500</v>
+        <v>120856</v>
       </c>
       <c r="H6" s="9">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I6" s="9">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J6" s="9">
         <v>0.21</v>
       </c>
       <c r="K6" s="9">
-        <v>22.09</v>
+        <v>21.83</v>
       </c>
       <c r="L6" s="9">
         <v>1847.110107421875</v>
       </c>
       <c r="M6" s="9">
-        <v>348.58</v>
+        <v>349.05</v>
       </c>
       <c r="N6" s="9">
-        <v>18.87</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="O6" s="9">
-        <v>529.9</v>
+        <v>529.17999999999995</v>
       </c>
       <c r="P6" s="9">
         <v>51</v>
@@ -1281,7 +1281,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="9">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="H8" s="9">
         <v>15</v>
@@ -1290,7 +1290,7 @@
         <v>0.68</v>
       </c>
       <c r="J8" s="9">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>29</v>
@@ -1343,16 +1343,16 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>371</v>
+        <v>455</v>
       </c>
       <c r="H9" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I9" s="9">
-        <v>1.19</v>
+        <v>0.76</v>
       </c>
       <c r="J9" s="9">
-        <v>1.89</v>
+        <v>2.86</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>29</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>8.33</v>
+        <v>9.89</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>29</v>
@@ -1467,31 +1467,31 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>117131</v>
+        <v>122585</v>
       </c>
       <c r="H11" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I11" s="9">
         <v>0.5</v>
       </c>
       <c r="J11" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K11" s="9">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="L11" s="9">
         <v>328.78997802734375</v>
       </c>
       <c r="M11" s="9">
-        <v>81.3</v>
+        <v>81.34</v>
       </c>
       <c r="N11" s="9">
-        <v>24.73</v>
+        <v>24.74</v>
       </c>
       <c r="O11" s="9">
-        <v>404.42</v>
+        <v>404.22</v>
       </c>
       <c r="P11" s="9">
         <v>7</v>
@@ -1529,13 +1529,13 @@
         <v>27</v>
       </c>
       <c r="G12" s="9">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="H12" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="J12" s="9">
         <v>3</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <v>14.38</v>
+        <v>15.93</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>29</v>
@@ -1591,31 +1591,31 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>5356</v>
+        <v>5388</v>
       </c>
       <c r="H13" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I13" s="9">
         <v>0.74</v>
       </c>
       <c r="J13" s="9">
-        <v>4.93</v>
+        <v>4.92</v>
       </c>
       <c r="K13" s="9">
-        <v>8.7100000000000009</v>
+        <v>8.68</v>
       </c>
       <c r="L13" s="9">
         <v>429.18002319335938</v>
       </c>
       <c r="M13" s="9">
-        <v>195.21</v>
+        <v>195.52</v>
       </c>
       <c r="N13" s="9">
-        <v>45.48</v>
+        <v>45.56</v>
       </c>
       <c r="O13" s="9">
-        <v>219.86</v>
+        <v>219.51</v>
       </c>
       <c r="P13" s="9">
         <v>23</v>
@@ -1715,43 +1715,43 @@
         <v>27</v>
       </c>
       <c r="G15" s="9">
-        <v>10745</v>
+        <v>10809</v>
       </c>
       <c r="H15" s="9">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="I15" s="9">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J15" s="9">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="K15" s="9">
-        <v>9.16</v>
+        <v>9.27</v>
       </c>
       <c r="L15" s="9">
-        <v>1106.18994140625</v>
+        <v>1127.8798828125</v>
       </c>
       <c r="M15" s="9">
-        <v>438.8</v>
+        <v>439.38</v>
       </c>
       <c r="N15" s="9">
-        <v>39.67</v>
+        <v>38.96</v>
       </c>
       <c r="O15" s="9">
-        <v>252.09</v>
+        <v>256.7</v>
       </c>
       <c r="P15" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="9">
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S15" s="9">
-        <v>1106.18994140625</v>
+        <v>1127.8798828125</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="9">
-        <v>3377</v>
+        <v>3430</v>
       </c>
       <c r="H18" s="9">
         <v>9</v>
@@ -1910,7 +1910,7 @@
         <v>1.92</v>
       </c>
       <c r="J18" s="9">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K18" s="9">
         <v>11.11</v>
@@ -1963,7 +1963,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="9">
-        <v>18054</v>
+        <v>18244</v>
       </c>
       <c r="H19" s="9">
         <v>69</v>
@@ -2025,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="9">
-        <v>3937</v>
+        <v>4002</v>
       </c>
       <c r="H20" s="9">
         <v>20</v>
@@ -2034,7 +2034,7 @@
         <v>1.8</v>
       </c>
       <c r="J20" s="9">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="9">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="9">
-        <v>3745</v>
+        <v>3867</v>
       </c>
       <c r="H21" s="9">
         <v>21</v>
@@ -2096,7 +2096,7 @@
         <v>0.44</v>
       </c>
       <c r="J21" s="9">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="K21" s="9">
         <v>4.76</v>
@@ -2149,31 +2149,31 @@
         <v>27</v>
       </c>
       <c r="G22" s="9">
-        <v>20117</v>
+        <v>20530</v>
       </c>
       <c r="H22" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I22" s="9">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J22" s="9">
         <v>0.45</v>
       </c>
       <c r="K22" s="9">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="L22" s="9">
         <v>589.30999755859375</v>
       </c>
       <c r="M22" s="9">
-        <v>256.57</v>
+        <v>257.8</v>
       </c>
       <c r="N22" s="9">
-        <v>43.54</v>
+        <v>43.75</v>
       </c>
       <c r="O22" s="9">
-        <v>229.69</v>
+        <v>228.59</v>
       </c>
       <c r="P22" s="9">
         <v>3</v>
@@ -2211,31 +2211,31 @@
         <v>27</v>
       </c>
       <c r="G23" s="9">
-        <v>15981</v>
+        <v>16319</v>
       </c>
       <c r="H23" s="9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I23" s="9">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="J23" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="K23" s="9">
-        <v>1.0900000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="L23" s="9">
         <v>153.8699951171875</v>
       </c>
       <c r="M23" s="9">
-        <v>257.33</v>
+        <v>260.49</v>
       </c>
       <c r="N23" s="9">
-        <v>167.24</v>
+        <v>169.29</v>
       </c>
       <c r="O23" s="9">
-        <v>59.79</v>
+        <v>59.07</v>
       </c>
       <c r="P23" s="9">
         <v>1</v>
@@ -2273,31 +2273,31 @@
         <v>27</v>
       </c>
       <c r="G24" s="9">
-        <v>19715</v>
+        <v>19935</v>
       </c>
       <c r="H24" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="J24" s="9">
         <v>0.2</v>
       </c>
       <c r="K24" s="9">
-        <v>10.26</v>
+        <v>10</v>
       </c>
       <c r="L24" s="9">
         <v>292.27999877929688</v>
       </c>
       <c r="M24" s="9">
-        <v>28.96</v>
+        <v>29.38</v>
       </c>
       <c r="N24" s="9">
-        <v>9.91</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="O24" s="9">
-        <v>1009.3</v>
+        <v>994.83</v>
       </c>
       <c r="P24" s="9">
         <v>3</v>
@@ -2335,31 +2335,31 @@
         <v>27</v>
       </c>
       <c r="G25" s="9">
-        <v>40978</v>
+        <v>43071</v>
       </c>
       <c r="H25" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I25" s="9">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="J25" s="9">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="K25" s="9">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L25" s="9">
         <v>62.560001373291016</v>
       </c>
       <c r="M25" s="9">
-        <v>58.91</v>
+        <v>59.14</v>
       </c>
       <c r="N25" s="9">
-        <v>94.17</v>
+        <v>94.53</v>
       </c>
       <c r="O25" s="9">
-        <v>106.2</v>
+        <v>105.78</v>
       </c>
       <c r="P25" s="9">
         <v>2</v>
